--- a/biology/Zoologie/Gros-bec_à_ailes_blanches/Gros-bec_à_ailes_blanches.xlsx
+++ b/biology/Zoologie/Gros-bec_à_ailes_blanches/Gros-bec_à_ailes_blanches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gros-bec_%C3%A0_ailes_blanches</t>
+          <t>Gros-bec_à_ailes_blanches</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycerobas carnipes
 Le Gros-bec à ailes blanches (Mycerobas carnipes) est une espèce de passereau appartenant à la famille des Fringillidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gros-bec_%C3%A0_ailes_blanches</t>
+          <t>Gros-bec_à_ailes_blanches</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gros-bec à ailes blanches mesure entre 22 et 24 cm.
 Il présente un dimorphisme sexuel.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gros-bec_%C3%A0_ailes_blanches</t>
+          <t>Gros-bec_à_ailes_blanches</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nord de l’Iran et de l’Afghanistan, sud du Turkménistan, nord du Pakistan, Kazakhstan, Tien-Chan, Cachemire, sud du Tibet et Himalaya, centre de la Chine, nord du Myanmar et extrême nord-est de l’Inde. Il hiverne au sud de l’Himalaya.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gros-bec_%C3%A0_ailes_blanches</t>
+          <t>Gros-bec_à_ailes_blanches</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Elles sont peu différenciées, speculigerus et merzbacheri sont légèrement plus pâles dans les deux sexes et le mâle carnipes présente généralement des couleurs plus riches.
 M. c. carnipes (Hodgson, 1836) : sud du Turkestan russe et chinois, Kazakhstan, ouest du Sinkiang, Himalaya, sud du Tibet et nord de l’Himalaya, Seutchouan, nord du Yunnan, Tsinghaï, sud du Kansou.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gros-bec_%C3%A0_ailes_blanches</t>
+          <t>Gros-bec_à_ailes_blanches</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gros-bec à ailes blanches est inféodé aux fourrés de genévriers rabougris au-delà de l’étage des forêts et aux formations mixtes de genévriers et de sapins au voisinage de la limite des arbres. A plus basse altitude, il fréquente les bosquets mixtes de sapins, de rhododendrons et de genévriers ou les forêts de sapins à sous-bois de bambou ou encore
 les bois de pins notamment dans l’ouest. En hiver, il descend généralement à plus basse altitude. Selon Roberts (1992), il est associé aux fourrés de genévriers rabougris (Juniperus communis) dans le nord du Pakistan et aux formations de genévriers arbustifs (Juniperus macropoda) dans le centre-nord du Balouchistan.
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gros-bec_%C3%A0_ailes_blanches</t>
+          <t>Gros-bec_à_ailes_blanches</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son régime alimentaire est dominé par les baies du cornouiller sanguin (Cornus sanguinea), du randia (Randia tetrasperma) et du genévrier commun (Juniperus communis) avec un complément de graines de conifères, de fruits à coque et de graines de plantes herbacées dont d’oseille (Rumex).
 </t>
@@ -658,7 +680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gros-bec_%C3%A0_ailes_blanches</t>
+          <t>Gros-bec_à_ailes_blanches</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,7 +698,9 @@
           <t>Mœurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été décrit comme bruyant, produisant des craquements audibles à 20 ou 30 m et facilement reconnaissables lorsqu’il brise des fruits à coque. Il est également moins farouche que les autres gros-becs. En cas d’alarme, il reste perché immobile et silencieux dans le feuillage mais en cas de mise en fuite d’un groupe, les sujets s’envolent dans toutes les directions dans un bruissement d’ailes particulier et dans un vol plongeant rappelant celui d’un pic, chacun émettant un cri d’alarme grinçant avant de se regrouper. Il peut former des groupes comptant jusqu’à 30 ou 40 sujets, parfois en compagnie du roselin à dos rouge (Carpodacus rhodochlamys), et, certains hivers, jusqu’à 50 ou 60 oiseaux. Il constitue des troupes bruyantes hors saison de reproduction, passant souvent de longs moments au même endroit. Le vol est ondulant et puissant mais sur de courtes distances.
 </t>
@@ -689,7 +713,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gros-bec_%C3%A0_ailes_blanches</t>
+          <t>Gros-bec_à_ailes_blanches</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,7 +731,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid est une coupe profonde de brindilles et de tiges de graminées avec un complément de mousse ou de feuilles mortes et l’intérieur tapissé de fibres d’écorce de genévrier. Il est généralement placé dans un genévrier à environ deux mètres de hauteur mais aussi dans un épicéa ou dans un autre arbre, parfois jusqu’à 20 m de haut. La ponte habituelle est de trois œufs (parfois deux), gris-verdâtre pâle tachetés et vermiculés de pourpre-noir avec des motifs pourpre pâle. La construction du nid incombe à la femelle seule, le mâle ne faisant que l’accompagner. L’incubation dure 15 ou 16 jours et revient aux deux sexes mais surtout à la femelle. Les deux parents s’occupent des jeunes et la période des oisillons au nid dure une vingtaine de jours.
 </t>
@@ -720,7 +746,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gros-bec_%C3%A0_ailes_blanches</t>
+          <t>Gros-bec_à_ailes_blanches</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -738,7 +764,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Armani G.C. (1983) Guide des passereaux granivores. Delachaux et Niestlé, Neuchâtel, Paris, 262 p.
 Ottaviani M. (2008) Monographie des Fringilles (fringillinés - carduélinés). Histoire Naturelle et photographies. Editions Prin, Ingré, 488 p.
